--- a/data/trans_orig/P6716-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>3968</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1058</v>
+        <v>1246</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10020</v>
+        <v>9496</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01310586795524048</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003493016259963107</v>
+        <v>0.004114236209442577</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03309000798243379</v>
+        <v>0.03135934928110742</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -763,19 +763,19 @@
         <v>3841</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9559</v>
+        <v>9422</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01975777344604695</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005270821076333555</v>
+        <v>0.005177995729136423</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04916752805630866</v>
+        <v>0.04846433561511133</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -784,19 +784,19 @@
         <v>7810</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3815</v>
+        <v>3636</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15900</v>
+        <v>15177</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01570679301440199</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007672795925372772</v>
+        <v>0.0073129326641221</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03197784373887282</v>
+        <v>0.03052445769105509</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>4970</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1663</v>
+        <v>1887</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10544</v>
+        <v>10818</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01641455862207344</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005490375417302064</v>
+        <v>0.006232694772027763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03482087286759291</v>
+        <v>0.0357266138623033</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -834,19 +834,19 @@
         <v>3883</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>963</v>
+        <v>995</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11932</v>
+        <v>12299</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01997032350029347</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004952156532711557</v>
+        <v>0.005119718175839068</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06137503779670513</v>
+        <v>0.06325987646683984</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -855,19 +855,19 @@
         <v>8853</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3940</v>
+        <v>3897</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16718</v>
+        <v>17464</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01780487873245847</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00792410919523478</v>
+        <v>0.007837039165373783</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03362378658038769</v>
+        <v>0.03512336485659973</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>46869</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35583</v>
+        <v>34982</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60894</v>
+        <v>60885</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1547828052887488</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1175106664502938</v>
+        <v>0.1155273501686231</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.201101221894603</v>
+        <v>0.2010715474568713</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -905,19 +905,19 @@
         <v>19765</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11708</v>
+        <v>11562</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30942</v>
+        <v>29675</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1016643720238988</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06022361834459616</v>
+        <v>0.05946981148962457</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1591547836611009</v>
+        <v>0.1526369955626745</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -926,19 +926,19 @@
         <v>66634</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52253</v>
+        <v>52573</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85182</v>
+        <v>88059</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1340132582209362</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1050903887184845</v>
+        <v>0.1057342733985484</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1713174163759767</v>
+        <v>0.1771039213482436</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>50020</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38337</v>
+        <v>36819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66406</v>
+        <v>65508</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1651899441653381</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1266068487655563</v>
+        <v>0.1215938080696623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.219304094246144</v>
+        <v>0.2163381162449107</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -976,19 +976,19 @@
         <v>37797</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27012</v>
+        <v>27236</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50324</v>
+        <v>50092</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1944134774712729</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1389401336214058</v>
+        <v>0.1400918547918249</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.25885034705779</v>
+        <v>0.2576571493420661</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -997,19 +997,19 @@
         <v>87817</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70399</v>
+        <v>72204</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>106812</v>
+        <v>107595</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1766164775395264</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.141585806155953</v>
+        <v>0.1452165245789603</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2148195124611366</v>
+        <v>0.2163948735519664</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>196975</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>179486</v>
+        <v>178579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>213275</v>
+        <v>214023</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6505068239685993</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5927470405000804</v>
+        <v>0.5897547031715751</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7043358556426264</v>
+        <v>0.706805255720976</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>117</v>
@@ -1047,19 +1047,19 @@
         <v>129129</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>114352</v>
+        <v>115341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>143462</v>
+        <v>143083</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6641940535584878</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.588188788137006</v>
+        <v>0.593274933905254</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.737922116830081</v>
+        <v>0.7359709197944851</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>300</v>
@@ -1068,19 +1068,19 @@
         <v>326104</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>301456</v>
+        <v>303626</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>349718</v>
+        <v>346900</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.655858592492677</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.606286974786694</v>
+        <v>0.6106504557436698</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7033508677125752</v>
+        <v>0.697683420247675</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>4320</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1799</v>
+        <v>1517</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11319</v>
+        <v>11992</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01677377341989761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00698655249854164</v>
+        <v>0.00589189173274856</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04395310073463895</v>
+        <v>0.04656666848247035</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1193,19 +1193,19 @@
         <v>5117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2055</v>
+        <v>1170</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12002</v>
+        <v>11667</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03063682593942186</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01230484591634493</v>
+        <v>0.007005720268271994</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07185452766749824</v>
+        <v>0.0698455066114422</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1214,19 +1214,19 @@
         <v>9437</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4761</v>
+        <v>4535</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18195</v>
+        <v>17547</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02222784834049473</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01121270038639824</v>
+        <v>0.01068255973058898</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04285536028417415</v>
+        <v>0.04132800826108634</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>6897</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2067</v>
+        <v>2786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15562</v>
+        <v>15030</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02678018726713693</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008027743776814148</v>
+        <v>0.01081715068807926</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0604287838209016</v>
+        <v>0.05836148388888428</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1264,19 +1264,19 @@
         <v>3061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>956</v>
+        <v>924</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9148</v>
+        <v>8248</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01832287636687857</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005723654984333905</v>
+        <v>0.005533061342411058</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05476568337414649</v>
+        <v>0.04938120109350388</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1285,19 +1285,19 @@
         <v>9957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4845</v>
+        <v>5016</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18673</v>
+        <v>19190</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0234528676012965</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01141180911553239</v>
+        <v>0.01181482548977978</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04398116575313087</v>
+        <v>0.04519907856802693</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>34260</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24070</v>
+        <v>23604</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45659</v>
+        <v>46373</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1330312384376927</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09346505965561273</v>
+        <v>0.09165608771818276</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1772951953563571</v>
+        <v>0.1800667766371511</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -1335,19 +1335,19 @@
         <v>37640</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26106</v>
+        <v>27649</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50245</v>
+        <v>51046</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2253446372844532</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1562910453433562</v>
+        <v>0.165525822637802</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3008031873003742</v>
+        <v>0.305598928495352</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>67</v>
@@ -1356,19 +1356,19 @@
         <v>71900</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>57508</v>
+        <v>56518</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>89300</v>
+        <v>90726</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1693496605727965</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1354501572389154</v>
+        <v>0.133118938837211</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2103308905977921</v>
+        <v>0.213691275446715</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>68583</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54158</v>
+        <v>53879</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84642</v>
+        <v>84559</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2663091011952604</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2102962522609972</v>
+        <v>0.2092110534931212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3286665850597491</v>
+        <v>0.3283450340815637</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1406,19 +1406,19 @@
         <v>46064</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35359</v>
+        <v>33738</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59692</v>
+        <v>58585</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2757772640798982</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2116864262783549</v>
+        <v>0.2019812707613491</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3573610459856951</v>
+        <v>0.3507344047910666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -1427,19 +1427,19 @@
         <v>114648</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96344</v>
+        <v>95749</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134587</v>
+        <v>133719</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2700341155570327</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2269229913833511</v>
+        <v>0.225521724807661</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3169994344981575</v>
+        <v>0.3149527409440532</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>143473</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>125057</v>
+        <v>124573</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158996</v>
+        <v>159208</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5571056996800123</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.485598930183186</v>
+        <v>0.4837185844285257</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6173833661792496</v>
+        <v>0.6182070181610092</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -1477,19 +1477,19 @@
         <v>75152</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61473</v>
+        <v>62045</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88110</v>
+        <v>88800</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4499183963293482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3680243669793009</v>
+        <v>0.3714483711432713</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5274972162056247</v>
+        <v>0.5316267809465244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>192</v>
@@ -1498,19 +1498,19 @@
         <v>218625</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>196519</v>
+        <v>195313</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>237630</v>
+        <v>239987</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5149355079283796</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4628701999755329</v>
+        <v>0.4600295015504619</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5596989963448075</v>
+        <v>0.5652517009251252</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>4027</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10193</v>
+        <v>9953</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01435335170672078</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003662862714074087</v>
+        <v>0.003695024814999878</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03632873940431777</v>
+        <v>0.03547061887789553</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4765</v>
+        <v>4287</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009587249407629192</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04349598479615237</v>
+        <v>0.0391366238203976</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1644,19 +1644,19 @@
         <v>5078</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1962</v>
+        <v>2071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11227</v>
+        <v>11808</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01301512660426201</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005029361726684899</v>
+        <v>0.005309551415246336</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0287778290279509</v>
+        <v>0.0302662158904676</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>7165</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3269</v>
+        <v>3092</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13663</v>
+        <v>13812</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02553448321587599</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01164945378387025</v>
+        <v>0.01101900584802748</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04869265280370214</v>
+        <v>0.04922517585438788</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1694,19 +1694,19 @@
         <v>4160</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12827</v>
+        <v>11505</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03797561817978333</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009584793078248376</v>
+        <v>0.009642817545875555</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1170991624585497</v>
+        <v>0.1050323586276816</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1715,19 +1715,19 @@
         <v>11325</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5440</v>
+        <v>5964</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19915</v>
+        <v>20914</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0290277022168512</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01394481327670976</v>
+        <v>0.01528746575673658</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05104663249425649</v>
+        <v>0.05360704936502127</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>44838</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34271</v>
+        <v>34351</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59452</v>
+        <v>58011</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1597987486057219</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1221373859046721</v>
+        <v>0.1224252279611507</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2118831328281514</v>
+        <v>0.2067450854485912</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1765,19 +1765,19 @@
         <v>16306</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10005</v>
+        <v>10196</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25386</v>
+        <v>25676</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1488549757299429</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09133180018593073</v>
+        <v>0.09308171289727291</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2317448969878822</v>
+        <v>0.2343944531815999</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>60</v>
@@ -1786,19 +1786,19 @@
         <v>61144</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>47497</v>
+        <v>47713</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>77153</v>
+        <v>75695</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.156725958585926</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1217474324887463</v>
+        <v>0.1222991351095719</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1977611193062735</v>
+        <v>0.1940242393566679</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>75144</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59976</v>
+        <v>60928</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89665</v>
+        <v>90984</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2678075711890575</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2137508661175723</v>
+        <v>0.2171440177842545</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3195587946162075</v>
+        <v>0.3242602694939449</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1836,19 +1836,19 @@
         <v>20283</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12992</v>
+        <v>13259</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29266</v>
+        <v>29660</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1851669004166749</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1186039516678515</v>
+        <v>0.1210440470994424</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2671655045971638</v>
+        <v>0.2707679887693791</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>95</v>
@@ -1857,19 +1857,19 @@
         <v>95428</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80326</v>
+        <v>79509</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115795</v>
+        <v>113701</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2446037427414993</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.205895467677521</v>
+        <v>0.2038019386345047</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2968111254838398</v>
+        <v>0.2914442948692662</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>149416</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>132892</v>
+        <v>130748</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>165892</v>
+        <v>165198</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5325058452826239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4736164093252549</v>
+        <v>0.4659761663778358</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.591224577282234</v>
+        <v>0.5887535112023099</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -1907,19 +1907,19 @@
         <v>67742</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56786</v>
+        <v>57043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>77375</v>
+        <v>78345</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6184152562659696</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5184029441220023</v>
+        <v>0.5207487653564002</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7063610581650636</v>
+        <v>0.7152128720906548</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>208</v>
@@ -1928,19 +1928,19 @@
         <v>217158</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>196320</v>
+        <v>196976</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>236237</v>
+        <v>237472</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5566274698514615</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5032147392459049</v>
+        <v>0.504895971285936</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6055326394744307</v>
+        <v>0.6086984718183377</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>10082</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5012</v>
+        <v>5041</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19962</v>
+        <v>19143</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02378535124909956</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01182355689893148</v>
+        <v>0.01189303406704777</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04709288472344401</v>
+        <v>0.04516113414025433</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2053,19 +2053,19 @@
         <v>12343</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7014</v>
+        <v>6151</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21271</v>
+        <v>20266</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04131549656886762</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02347936488367581</v>
+        <v>0.02058987969640961</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07119855790257404</v>
+        <v>0.06783736319797279</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2074,19 +2074,19 @@
         <v>22425</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13472</v>
+        <v>14341</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33141</v>
+        <v>35433</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03103271800202001</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01864326574791106</v>
+        <v>0.01984505518377713</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04586135991850665</v>
+        <v>0.04903387755072112</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>25032</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16546</v>
+        <v>16357</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36885</v>
+        <v>36725</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05905516718002524</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03903503265566843</v>
+        <v>0.03858992538140492</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0870184968112729</v>
+        <v>0.08664167511600543</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2124,19 +2124,19 @@
         <v>15068</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8776</v>
+        <v>9021</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25184</v>
+        <v>25034</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05043744956663748</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02937608367085694</v>
+        <v>0.03019514630312499</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08429651139734708</v>
+        <v>0.08379535874498802</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -2145,19 +2145,19 @@
         <v>40100</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29225</v>
+        <v>28213</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>54247</v>
+        <v>53704</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0554924037814301</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0404423891245413</v>
+        <v>0.03904274515354934</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07506949887102905</v>
+        <v>0.07431820042610725</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>96797</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>80020</v>
+        <v>80502</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>115306</v>
+        <v>116042</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2283621530015116</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1887821790198632</v>
+        <v>0.1899187515000744</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2720269582957526</v>
+        <v>0.2737624212530102</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>75</v>
@@ -2195,19 +2195,19 @@
         <v>80118</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>65661</v>
+        <v>65572</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>98270</v>
+        <v>96920</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2681760409132034</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2197841670692377</v>
+        <v>0.2194855361541944</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3289353482660669</v>
+        <v>0.3244171635705337</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>165</v>
@@ -2216,19 +2216,19 @@
         <v>176915</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>154873</v>
+        <v>153994</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>200523</v>
+        <v>200602</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2448221333549155</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2143196129478983</v>
+        <v>0.2131029362542553</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2774913512456009</v>
+        <v>0.2776007966361755</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>119942</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>102496</v>
+        <v>100308</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>141717</v>
+        <v>139130</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2829633053572972</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2418053730156666</v>
+        <v>0.2366431096550443</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.334334167457481</v>
+        <v>0.3282317560303318</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>72</v>
@@ -2266,19 +2266,19 @@
         <v>73066</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60084</v>
+        <v>58345</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89024</v>
+        <v>89579</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2445715200103459</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2011188443815339</v>
+        <v>0.1952949940059291</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2979877813266641</v>
+        <v>0.2998460714776638</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>185</v>
@@ -2287,19 +2287,19 @@
         <v>193007</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>170584</v>
+        <v>168516</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>219479</v>
+        <v>216520</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2670912550329343</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2360605158761359</v>
+        <v>0.2331997244941388</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.303723824993789</v>
+        <v>0.2996290748286944</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>172024</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>149403</v>
+        <v>152196</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>194201</v>
+        <v>194558</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4058340232120664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3524687051645981</v>
+        <v>0.359057653243306</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4581534324524599</v>
+        <v>0.4589962686063854</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>108</v>
@@ -2337,19 +2337,19 @@
         <v>118156</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>102704</v>
+        <v>100439</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>135726</v>
+        <v>135557</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3954994929409456</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3437763760615586</v>
+        <v>0.33619579074794</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4543130446716314</v>
+        <v>0.4537457981536289</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>271</v>
@@ -2358,19 +2358,19 @@
         <v>290179</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>263281</v>
+        <v>261107</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>318224</v>
+        <v>318243</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4015614898287001</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3643392675735093</v>
+        <v>0.3613303144562438</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4403709084353509</v>
+        <v>0.4403976565910813</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>16806</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9907</v>
+        <v>9798</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26701</v>
+        <v>26535</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1106110138728319</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06520766133329226</v>
+        <v>0.06448499431338948</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1757368645839382</v>
+        <v>0.1746500588044068</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2483,19 +2483,19 @@
         <v>6146</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2919</v>
+        <v>2901</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13091</v>
+        <v>12994</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03536542199720939</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0167978795312425</v>
+        <v>0.01669665488850653</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07533239259936048</v>
+        <v>0.07477681990864064</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -2504,19 +2504,19 @@
         <v>22951</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14743</v>
+        <v>15165</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>34176</v>
+        <v>33527</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07046550479636361</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04526485088127645</v>
+        <v>0.04656117525581396</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1049283824433999</v>
+        <v>0.1029365975223585</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>15221</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8479</v>
+        <v>8538</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24441</v>
+        <v>24813</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1001784399745201</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05580993568225889</v>
+        <v>0.05619401272327286</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1608623897901825</v>
+        <v>0.1633108306747036</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -2554,19 +2554,19 @@
         <v>16495</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9293</v>
+        <v>9109</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25965</v>
+        <v>26393</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09492251680736069</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05347557137134556</v>
+        <v>0.05241816940290199</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.14941890630034</v>
+        <v>0.1518819043248396</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>27</v>
@@ -2575,19 +2575,19 @@
         <v>31716</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21220</v>
+        <v>22030</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>44696</v>
+        <v>44053</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0973742662554643</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06514930080676984</v>
+        <v>0.06763677402498629</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1372262771017305</v>
+        <v>0.1352513986867937</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>33092</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23095</v>
+        <v>23407</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>44556</v>
+        <v>43990</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2178011839835915</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1520046974275456</v>
+        <v>0.1540604861375981</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2932545218077116</v>
+        <v>0.2895343510271485</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>44</v>
@@ -2625,19 +2625,19 @@
         <v>49484</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>37461</v>
+        <v>37890</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>62667</v>
+        <v>62860</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2847597601159482</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2155746486524582</v>
+        <v>0.218041680312515</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3606205479777747</v>
+        <v>0.3617339016521984</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>76</v>
@@ -2646,19 +2646,19 @@
         <v>82576</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>65860</v>
+        <v>67455</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>99009</v>
+        <v>100361</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2535253514579095</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2022035452914862</v>
+        <v>0.2071026689161883</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.303978648455513</v>
+        <v>0.3081289266877943</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>37774</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>27710</v>
+        <v>27259</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>50989</v>
+        <v>50458</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2486175862796209</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1823826173835614</v>
+        <v>0.1794137986963764</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3355969179613788</v>
+        <v>0.3321047140564871</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>44</v>
@@ -2696,19 +2696,19 @@
         <v>46733</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>35685</v>
+        <v>36793</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>59012</v>
+        <v>60681</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2689281517711122</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2053493060351881</v>
+        <v>0.2117292958155611</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3395861226246635</v>
+        <v>0.3491915051746791</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>79</v>
@@ -2717,19 +2717,19 @@
         <v>84507</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>69172</v>
+        <v>71207</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>101123</v>
+        <v>103931</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2594538089866553</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2123724150050629</v>
+        <v>0.2186211398570841</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3104701057406303</v>
+        <v>0.3190891557936206</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>49043</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38665</v>
+        <v>37872</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>62583</v>
+        <v>61559</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3227917758894356</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2544845024367731</v>
+        <v>0.2492614605612505</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4119063211148642</v>
+        <v>0.4051637976696399</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>50</v>
@@ -2767,19 +2767,19 @@
         <v>54917</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>42600</v>
+        <v>42676</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>67924</v>
+        <v>67019</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3160241493083695</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2451470861252689</v>
+        <v>0.24558248852751</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3908716408085354</v>
+        <v>0.3856644346890666</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>97</v>
@@ -2788,19 +2788,19 @@
         <v>103960</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>86240</v>
+        <v>86123</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>121298</v>
+        <v>121445</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3191810685036072</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2647749056800386</v>
+        <v>0.2644155392904065</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3724102090784752</v>
+        <v>0.3728637968390916</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>39203</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>28850</v>
+        <v>28427</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>54407</v>
+        <v>53943</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02767165729702493</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02036346927999544</v>
+        <v>0.02006494212737489</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03840308855532975</v>
+        <v>0.03807542345946634</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>28</v>
@@ -2913,19 +2913,19 @@
         <v>28497</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>19151</v>
+        <v>19485</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>39871</v>
+        <v>40269</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03020349675017532</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0202970015322309</v>
+        <v>0.02065157956526531</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04225756524253174</v>
+        <v>0.04267995493216708</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>65</v>
@@ -2934,19 +2934,19 @@
         <v>67701</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>51869</v>
+        <v>52900</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>85335</v>
+        <v>85911</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02868376576212881</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02197621902133902</v>
+        <v>0.0224130580573728</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03615526080065661</v>
+        <v>0.03639905512667563</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>59285</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>46103</v>
+        <v>44864</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>76193</v>
+        <v>78280</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04184588300401335</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03254190968874103</v>
+        <v>0.03166719563282338</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05378083131853543</v>
+        <v>0.05525389568840638</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>37</v>
@@ -2984,19 +2984,19 @@
         <v>42666</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>30282</v>
+        <v>30360</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>58380</v>
+        <v>57085</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04522058647839138</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03209482193666994</v>
+        <v>0.03217768810501714</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06187500236458481</v>
+        <v>0.06050262806215188</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>92</v>
@@ -3005,19 +3005,19 @@
         <v>101951</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>84766</v>
+        <v>82120</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>125726</v>
+        <v>123891</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04319492824042573</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03591412474641184</v>
+        <v>0.03479305692393864</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05326788134479345</v>
+        <v>0.05249052436762647</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>255855</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>226415</v>
+        <v>226093</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>286206</v>
+        <v>287095</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1805949396996446</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1598142945134</v>
+        <v>0.1595874978997208</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2020175653714767</v>
+        <v>0.2026454154032067</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>186</v>
@@ -3055,19 +3055,19 @@
         <v>203313</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>179331</v>
+        <v>179763</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>229653</v>
+        <v>230663</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2154845715338957</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1900662286330884</v>
+        <v>0.1905242480890923</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2434015192815793</v>
+        <v>0.2444722040954709</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>429</v>
@@ -3076,19 +3076,19 @@
         <v>459168</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>418732</v>
+        <v>417502</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>500825</v>
+        <v>496345</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.19454214779764</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1774098852315882</v>
+        <v>0.1768889730857374</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2121916032969556</v>
+        <v>0.2102933660538026</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>351462</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>319208</v>
+        <v>318722</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>388801</v>
+        <v>383239</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.248078931371991</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2253126051628957</v>
+        <v>0.2249689984779665</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2744343992573964</v>
+        <v>0.2705085926181813</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>214</v>
@@ -3126,19 +3126,19 @@
         <v>223944</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>199560</v>
+        <v>199506</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>252119</v>
+        <v>254353</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2373500025417078</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2115070967104602</v>
+        <v>0.2114495114789998</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2672122753055285</v>
+        <v>0.2695798261889052</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>547</v>
@@ -3147,19 +3147,19 @@
         <v>575406</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>534753</v>
+        <v>533225</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>620965</v>
+        <v>618464</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2437900181562992</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.226566367585119</v>
+        <v>0.2259189078674985</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2630926104695519</v>
+        <v>0.2620332799428965</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>710930</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>672367</v>
+        <v>673960</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>751661</v>
+        <v>748666</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5018085886273261</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4745888966603273</v>
+        <v>0.4757132411060436</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5305583716135522</v>
+        <v>0.5284441048662489</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>406</v>
@@ -3197,19 +3197,19 @@
         <v>445096</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>414706</v>
+        <v>413463</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>478670</v>
+        <v>477251</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4717413426958298</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4395324930355071</v>
+        <v>0.4382149153476854</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5073253650584471</v>
+        <v>0.505821659741241</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1068</v>
@@ -3218,19 +3218,19 @@
         <v>1156025</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1102301</v>
+        <v>1105909</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1207494</v>
+        <v>1205124</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4897891400435063</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4670271461821746</v>
+        <v>0.4685555267434737</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.511595724813645</v>
+        <v>0.5105913484869687</v>
       </c>
     </row>
     <row r="39">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10097</v>
+        <v>9759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01041952356580175</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0365765436299989</v>
+        <v>0.03535076514448621</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3584,19 +3584,19 @@
         <v>5080</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1802</v>
+        <v>1769</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13466</v>
+        <v>13614</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02371695340994577</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008411582213760907</v>
+        <v>0.008260974762243</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0628753284831792</v>
+        <v>0.06356584373654715</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -3605,19 +3605,19 @@
         <v>7956</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2959</v>
+        <v>3397</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16163</v>
+        <v>17611</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01622901344487437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006036465543943822</v>
+        <v>0.006930420085829818</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03296996125838744</v>
+        <v>0.0359236200485594</v>
       </c>
     </row>
     <row r="5">
@@ -3634,19 +3634,19 @@
         <v>10338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4760</v>
+        <v>5338</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18763</v>
+        <v>20015</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03745069486886479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01724466480213555</v>
+        <v>0.01933718352178887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06796886652051</v>
+        <v>0.07250533089912627</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -3655,19 +3655,19 @@
         <v>3952</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9315</v>
+        <v>10066</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01845427517661295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004854707796564712</v>
+        <v>0.004831222386588989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04349188242029692</v>
+        <v>0.04700036439028402</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -3676,19 +3676,19 @@
         <v>14291</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7523</v>
+        <v>7848</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23493</v>
+        <v>23517</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02915138370616266</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01534695176941007</v>
+        <v>0.01600836384837106</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04792361160372811</v>
+        <v>0.04797161837748629</v>
       </c>
     </row>
     <row r="6">
@@ -3705,19 +3705,19 @@
         <v>38619</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27427</v>
+        <v>26943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52374</v>
+        <v>52285</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1398963703110045</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09935363788404999</v>
+        <v>0.09760199752937407</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1897252300487811</v>
+        <v>0.1894034261399164</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -3726,19 +3726,19 @@
         <v>31559</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22278</v>
+        <v>21810</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43026</v>
+        <v>43017</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1473519176063627</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1040160596675342</v>
+        <v>0.1018308742551468</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2008927574836262</v>
+        <v>0.2008495148040686</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -3747,19 +3747,19 @@
         <v>70178</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55385</v>
+        <v>55738</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87023</v>
+        <v>88702</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1431536107749882</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1129777093213358</v>
+        <v>0.113698340442988</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.177515795788888</v>
+        <v>0.180940927420521</v>
       </c>
     </row>
     <row r="7">
@@ -3776,19 +3776,19 @@
         <v>60262</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46700</v>
+        <v>46895</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74570</v>
+        <v>76615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2182973164892228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1691703919938161</v>
+        <v>0.1698773368831751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2701281280305315</v>
+        <v>0.2775384941879124</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -3797,19 +3797,19 @@
         <v>41485</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31288</v>
+        <v>30707</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54031</v>
+        <v>53824</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1936967774601157</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1460878610787796</v>
+        <v>0.1433755072239123</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2522762861100146</v>
+        <v>0.2513084102488162</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -3818,19 +3818,19 @@
         <v>101746</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84401</v>
+        <v>84157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119903</v>
+        <v>122660</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2075496318475726</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1721664612512833</v>
+        <v>0.1716701810624334</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2445876517105801</v>
+        <v>0.2502114487507071</v>
       </c>
     </row>
     <row r="8">
@@ -3847,19 +3847,19 @@
         <v>163958</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>146802</v>
+        <v>146281</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>182938</v>
+        <v>179961</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5939360947651061</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5317876824364621</v>
+        <v>0.5299017189951567</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6626898830252504</v>
+        <v>0.6519056920602223</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>129</v>
@@ -3868,19 +3868,19 @@
         <v>132098</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>117012</v>
+        <v>117867</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>146126</v>
+        <v>147027</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6167800763469629</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5463427028357958</v>
+        <v>0.5503310916098267</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6822756266680967</v>
+        <v>0.6864817276707483</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>281</v>
@@ -3889,19 +3889,19 @@
         <v>296056</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>276275</v>
+        <v>273577</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>318588</v>
+        <v>318487</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6039163602264022</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5635645057071311</v>
+        <v>0.5580612599598385</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6498793497808255</v>
+        <v>0.6496718446048162</v>
       </c>
     </row>
     <row r="9">
@@ -3993,19 +3993,19 @@
         <v>7791</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3144</v>
+        <v>3630</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16077</v>
+        <v>15274</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03202860335944269</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01292404522883906</v>
+        <v>0.01492199161027281</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06609779936430568</v>
+        <v>0.06279446862774919</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4014,19 +4014,19 @@
         <v>7799</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3386</v>
+        <v>3129</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15245</v>
+        <v>16701</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0412241507445272</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01789616024355822</v>
+        <v>0.01653915079435389</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08058548471657624</v>
+        <v>0.08828452099954993</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -4035,19 +4035,19 @@
         <v>15589</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9134</v>
+        <v>8043</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25775</v>
+        <v>24023</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03605155794691547</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02112446870515458</v>
+        <v>0.01860079824191053</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05960712927458825</v>
+        <v>0.0555560893875342</v>
       </c>
     </row>
     <row r="11">
@@ -4064,19 +4064,19 @@
         <v>7369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3032</v>
+        <v>3144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14512</v>
+        <v>14428</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03029371834906047</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01246665066421154</v>
+        <v>0.01292555138496507</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05966101529699375</v>
+        <v>0.05931626456098072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -4085,19 +4085,19 @@
         <v>18749</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10966</v>
+        <v>11146</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29096</v>
+        <v>29257</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09911114310120904</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05796835912700593</v>
+        <v>0.05891631136028459</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1538053504423029</v>
+        <v>0.1546543854350223</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -4106,19 +4106,19 @@
         <v>26118</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17518</v>
+        <v>17665</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38956</v>
+        <v>39120</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06040061280689097</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04051197145481602</v>
+        <v>0.04085180442851444</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09009061627329021</v>
+        <v>0.09046927234423009</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +4135,19 @@
         <v>57250</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45692</v>
+        <v>43549</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74277</v>
+        <v>71782</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2353657561765816</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1878492194079124</v>
+        <v>0.1790393754556602</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3053689083619689</v>
+        <v>0.295112201285243</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -4156,19 +4156,19 @@
         <v>51324</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40458</v>
+        <v>39321</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63544</v>
+        <v>64795</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2713029415633237</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2138653265657714</v>
+        <v>0.2078524012262734</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3359000412568061</v>
+        <v>0.3425119732860114</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>100</v>
@@ -4177,19 +4177,19 @@
         <v>108574</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>90334</v>
+        <v>90158</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>127613</v>
+        <v>127401</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2510878941590313</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2089056150930907</v>
+        <v>0.208499685049283</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.295117903681569</v>
+        <v>0.2946284255425888</v>
       </c>
     </row>
     <row r="13">
@@ -4206,19 +4206,19 @@
         <v>64952</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51797</v>
+        <v>51965</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80215</v>
+        <v>79869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2670328194654574</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2129478871886527</v>
+        <v>0.213638167318654</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3297808852931537</v>
+        <v>0.3283568897722789</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -4227,19 +4227,19 @@
         <v>47345</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35145</v>
+        <v>36629</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60050</v>
+        <v>60486</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2502705217181547</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1857785691784645</v>
+        <v>0.1936245996742178</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3174283846522623</v>
+        <v>0.3197328583343407</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -4248,19 +4248,19 @@
         <v>112297</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>92566</v>
+        <v>95231</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131935</v>
+        <v>132239</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2596994917368138</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2140687101818742</v>
+        <v>0.2202320119767001</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.305112959323651</v>
+        <v>0.3058174808531658</v>
       </c>
     </row>
     <row r="14">
@@ -4277,19 +4277,19 @@
         <v>105876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>89061</v>
+        <v>90408</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>121956</v>
+        <v>121955</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4352791026494579</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3661504574346208</v>
+        <v>0.3716879187509797</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5013882713621025</v>
+        <v>0.5013841579963941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -4298,19 +4298,19 @@
         <v>63959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50762</v>
+        <v>51266</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77987</v>
+        <v>78325</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3380912428727854</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2683336544353623</v>
+        <v>0.270995620822245</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4122446304716593</v>
+        <v>0.4140304473951494</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>159</v>
@@ -4319,19 +4319,19 @@
         <v>169835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>148671</v>
+        <v>149894</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>191616</v>
+        <v>193326</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3927604433503484</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.343816685816819</v>
+        <v>0.3466444938817883</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4431310259086282</v>
+        <v>0.4470869352650071</v>
       </c>
     </row>
     <row r="15">
@@ -4423,19 +4423,19 @@
         <v>9107</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4070</v>
+        <v>3670</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18506</v>
+        <v>18432</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04209680938189898</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01881356401251543</v>
+        <v>0.01696585742141803</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08554711000087463</v>
+        <v>0.08520347823601732</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4457,19 +4457,19 @@
         <v>9107</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3903</v>
+        <v>4285</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19424</v>
+        <v>19121</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03235681209741977</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0138667227143427</v>
+        <v>0.01522406919048465</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06901672655756859</v>
+        <v>0.06793997717984791</v>
       </c>
     </row>
     <row r="17">
@@ -4486,19 +4486,19 @@
         <v>11539</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6063</v>
+        <v>5500</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20736</v>
+        <v>20917</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05333891141864446</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0280273381843741</v>
+        <v>0.02542418717640556</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09585524677602501</v>
+        <v>0.09669356399523052</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4529</v>
+        <v>4554</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0134028625256171</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06954958377395618</v>
+        <v>0.06993612474351445</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -4528,19 +4528,19 @@
         <v>12411</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6048</v>
+        <v>6796</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21820</v>
+        <v>21500</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04409885229107148</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02148877539389611</v>
+        <v>0.02414836407999464</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07752923767279264</v>
+        <v>0.07639248056809993</v>
       </c>
     </row>
     <row r="18">
@@ -4557,19 +4557,19 @@
         <v>41480</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30238</v>
+        <v>30045</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55636</v>
+        <v>53658</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.19174776732463</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1397808266702771</v>
+        <v>0.1388876541208592</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2571878165493404</v>
+        <v>0.248041484877783</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -4578,19 +4578,19 @@
         <v>3604</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8440</v>
+        <v>8927</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05534629124833006</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01359880110366152</v>
+        <v>0.01359029983587413</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1296176583317574</v>
+        <v>0.1370845051509508</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>42</v>
@@ -4599,19 +4599,19 @@
         <v>45084</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>32673</v>
+        <v>34365</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>57512</v>
+        <v>58172</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1601883682611615</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1160906213406282</v>
+        <v>0.1221043721695947</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2043478550950554</v>
+        <v>0.206691351737398</v>
       </c>
     </row>
     <row r="19">
@@ -4628,19 +4628,19 @@
         <v>64838</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51740</v>
+        <v>52083</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78442</v>
+        <v>81657</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2997247753237958</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2391765257062892</v>
+        <v>0.2407631206182643</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3626136432760094</v>
+        <v>0.3774715977776306</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -4649,19 +4649,19 @@
         <v>21654</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13946</v>
+        <v>14257</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29436</v>
+        <v>29780</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3325401310337561</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2141582292384972</v>
+        <v>0.2189440117093465</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4520439651320252</v>
+        <v>0.4573261259300949</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>84</v>
@@ -4670,19 +4670,19 @@
         <v>86492</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71855</v>
+        <v>70581</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102938</v>
+        <v>101732</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3073173097746767</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.255307536784233</v>
+        <v>0.2507841083368848</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3657516635873567</v>
+        <v>0.3614665961878114</v>
       </c>
     </row>
     <row r="20">
@@ -4699,19 +4699,19 @@
         <v>89362</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>74501</v>
+        <v>73609</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>103908</v>
+        <v>104291</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4130917365510307</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3443947103112599</v>
+        <v>0.3402711119393647</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4803326875863566</v>
+        <v>0.4821019307125122</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -4720,19 +4720,19 @@
         <v>38987</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30909</v>
+        <v>31240</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46420</v>
+        <v>47290</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5987107151922968</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4746598722488866</v>
+        <v>0.4797468039212665</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7128645300656837</v>
+        <v>0.7262128710122672</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>123</v>
@@ -4741,19 +4741,19 @@
         <v>128349</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>112026</v>
+        <v>110867</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>147601</v>
+        <v>145616</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4560386575756706</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3980416914841212</v>
+        <v>0.3939233550447128</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5244438873761262</v>
+        <v>0.5173899003618365</v>
       </c>
     </row>
     <row r="21">
@@ -4845,19 +4845,19 @@
         <v>17464</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10379</v>
+        <v>10184</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26941</v>
+        <v>27196</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03580814997290926</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0212822033020734</v>
+        <v>0.0208823324195192</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05524152836282185</v>
+        <v>0.05576443437697233</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -4866,19 +4866,19 @@
         <v>11950</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6811</v>
+        <v>6048</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19463</v>
+        <v>19952</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03274586483381781</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01866346952589319</v>
+        <v>0.01657223491668923</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05333193821992818</v>
+        <v>0.05467170341892943</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -4887,19 +4887,19 @@
         <v>29414</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19737</v>
+        <v>19977</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>41798</v>
+        <v>41611</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03449745354900895</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02314798111435189</v>
+        <v>0.02342945369251479</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04902222344841849</v>
+        <v>0.04880237655015343</v>
       </c>
     </row>
     <row r="23">
@@ -4916,19 +4916,19 @@
         <v>32481</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21966</v>
+        <v>22434</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45358</v>
+        <v>44609</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0666005531037636</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0450399936498748</v>
+        <v>0.04600047777797913</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09300467799790099</v>
+        <v>0.09146859099334986</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -4937,19 +4937,19 @@
         <v>22288</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14773</v>
+        <v>14652</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>33703</v>
+        <v>33403</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06107406746194518</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04047921862391607</v>
+        <v>0.0401496254158774</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09235148163824117</v>
+        <v>0.09152961267880066</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>52</v>
@@ -4958,19 +4958,19 @@
         <v>54770</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>42127</v>
+        <v>42001</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>70297</v>
+        <v>69342</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06423514797704934</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04940752645182049</v>
+        <v>0.04925927681569525</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08244583702901587</v>
+        <v>0.08132655592943562</v>
       </c>
     </row>
     <row r="24">
@@ -4987,19 +4987,19 @@
         <v>115750</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>98269</v>
+        <v>96514</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>137563</v>
+        <v>137024</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2373385657078665</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2014936182978665</v>
+        <v>0.1978957980473377</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2820632957248946</v>
+        <v>0.2809582588394821</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>99</v>
@@ -5008,19 +5008,19 @@
         <v>101791</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>85801</v>
+        <v>86398</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>120506</v>
+        <v>121298</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2789230513311906</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2351074611652847</v>
+        <v>0.2367448548216026</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3302052604413185</v>
+        <v>0.3323751418221296</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>207</v>
@@ -5029,19 +5029,19 @@
         <v>217541</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>194212</v>
+        <v>192545</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>247340</v>
+        <v>244605</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2551372467975039</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2277771843301727</v>
+        <v>0.225821435924928</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2900863695534694</v>
+        <v>0.286879250945801</v>
       </c>
     </row>
     <row r="25">
@@ -5058,19 +5058,19 @@
         <v>157469</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>139218</v>
+        <v>136139</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>180058</v>
+        <v>177730</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3228808256693246</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2854576360528286</v>
+        <v>0.2791445861846701</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3691978457481896</v>
+        <v>0.3644234836840365</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>113</v>
@@ -5079,19 +5079,19 @@
         <v>111419</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>95465</v>
+        <v>95045</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>130172</v>
+        <v>129291</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3053066560772861</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.261589854966723</v>
+        <v>0.2604393059721428</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3566910856134759</v>
+        <v>0.3542778496348577</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>266</v>
@@ -5100,19 +5100,19 @@
         <v>268888</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>241151</v>
+        <v>241971</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>294791</v>
+        <v>296598</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3153588607996076</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2828278842246984</v>
+        <v>0.2837900024470734</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.345738532238029</v>
+        <v>0.3478573109647367</v>
       </c>
     </row>
     <row r="26">
@@ -5129,19 +5129,19 @@
         <v>164537</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>144423</v>
+        <v>144857</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>187467</v>
+        <v>185941</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.337371905546136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2961312357098161</v>
+        <v>0.2970203952716467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3843898319766917</v>
+        <v>0.3812595690368455</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>114</v>
@@ -5150,19 +5150,19 @@
         <v>117493</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>100840</v>
+        <v>101438</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>137291</v>
+        <v>135219</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3219503602957603</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2763191585629865</v>
+        <v>0.2779562728652268</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3761990363584524</v>
+        <v>0.3705205414080645</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>270</v>
@@ -5171,19 +5171,19 @@
         <v>282029</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>255701</v>
+        <v>252299</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>309898</v>
+        <v>309204</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3307712908768302</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2998928717828424</v>
+        <v>0.2959024026882331</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3634562655453517</v>
+        <v>0.3626416970849697</v>
       </c>
     </row>
     <row r="27">
@@ -5275,19 +5275,19 @@
         <v>12118</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6052</v>
+        <v>5950</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20672</v>
+        <v>21725</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06278103689746921</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03135379317454848</v>
+        <v>0.03082647893833753</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1070984208675901</v>
+        <v>0.1125539463025091</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -5296,19 +5296,19 @@
         <v>22009</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14496</v>
+        <v>14287</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>32260</v>
+        <v>32164</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1113721146544241</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07335190570860413</v>
+        <v>0.07229805993856717</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1632417237906479</v>
+        <v>0.1627551302439927</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>31</v>
@@ -5317,19 +5317,19 @@
         <v>34127</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>23978</v>
+        <v>23651</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>47904</v>
+        <v>46492</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08736250005331431</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06138032556424181</v>
+        <v>0.06054472637856461</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1226289329316831</v>
+        <v>0.1190155754444886</v>
       </c>
     </row>
     <row r="29">
@@ -5346,19 +5346,19 @@
         <v>20968</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13356</v>
+        <v>13051</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31155</v>
+        <v>31289</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1086301347500538</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06919670350812036</v>
+        <v>0.06761475971454746</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1614042185189161</v>
+        <v>0.1621014765237581</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -5367,19 +5367,19 @@
         <v>20234</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12676</v>
+        <v>12520</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30220</v>
+        <v>29387</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1023914613017803</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06414292110736242</v>
+        <v>0.0633556902058777</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1529220856859213</v>
+        <v>0.1487074512478724</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>39</v>
@@ -5388,19 +5388,19 @@
         <v>41202</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30354</v>
+        <v>30900</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54919</v>
+        <v>54773</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1054740878256134</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07770378839579412</v>
+        <v>0.07910043049704377</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1405881621570704</v>
+        <v>0.1402144194655837</v>
       </c>
     </row>
     <row r="30">
@@ -5417,19 +5417,19 @@
         <v>63274</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>50925</v>
+        <v>49023</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>78326</v>
+        <v>76556</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.32780885389077</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2638296476712492</v>
+        <v>0.2539737861994484</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4057857914361648</v>
+        <v>0.3966172641420225</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>54</v>
@@ -5438,19 +5438,19 @@
         <v>56355</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>43674</v>
+        <v>44810</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>69669</v>
+        <v>70762</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2851693072255541</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2210026956862757</v>
+        <v>0.226747318333994</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3525438731079945</v>
+        <v>0.358072056254773</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>112</v>
@@ -5459,19 +5459,19 @@
         <v>119629</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>101956</v>
+        <v>102364</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>139143</v>
+        <v>138760</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3062381768505201</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2609982129057212</v>
+        <v>0.2620415580008823</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.356193597015399</v>
+        <v>0.3552132152983754</v>
       </c>
     </row>
     <row r="31">
@@ -5488,19 +5488,19 @@
         <v>44911</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>33434</v>
+        <v>32937</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>57727</v>
+        <v>57355</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.232674886179186</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1732151725609239</v>
+        <v>0.1706380135492537</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2990714485189915</v>
+        <v>0.2971401401025004</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>48</v>
@@ -5509,19 +5509,19 @@
         <v>48939</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36745</v>
+        <v>36789</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>61741</v>
+        <v>61160</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2476408019072691</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1859376151444446</v>
+        <v>0.186159113056661</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3124249900598248</v>
+        <v>0.3094854664223731</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>90</v>
@@ -5530,19 +5530,19 @@
         <v>93850</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>77181</v>
+        <v>78094</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>110766</v>
+        <v>112242</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2402459079190918</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1975757578127728</v>
+        <v>0.1999122069164381</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2835507610120194</v>
+        <v>0.2873295528861431</v>
       </c>
     </row>
     <row r="32">
@@ -5559,19 +5559,19 @@
         <v>51750</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38917</v>
+        <v>39970</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>64973</v>
+        <v>64595</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.268105088282521</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2016209076281734</v>
+        <v>0.2070749262529092</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3366110378972624</v>
+        <v>0.3346514109099757</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -5580,19 +5580,19 @@
         <v>50082</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>38673</v>
+        <v>38731</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62511</v>
+        <v>62831</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2534263149109724</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1956947325692656</v>
+        <v>0.1959874921049406</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3163224191448535</v>
+        <v>0.3179389974199656</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>96</v>
@@ -5601,19 +5601,19 @@
         <v>101832</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>85574</v>
+        <v>84969</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>119883</v>
+        <v>120303</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2606793273514604</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2190598502921614</v>
+        <v>0.2175116332637933</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3068881220377366</v>
+        <v>0.3079630773814931</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>49355</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>34450</v>
+        <v>35110</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>65320</v>
+        <v>64964</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03484709614230527</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02432315931603934</v>
+        <v>0.02478935708611852</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04611930907962818</v>
+        <v>0.04586761422056599</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>44</v>
@@ -5726,19 +5726,19 @@
         <v>46838</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>33301</v>
+        <v>34462</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>61813</v>
+        <v>63116</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04542816452439971</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03229847928171851</v>
+        <v>0.03342460112564609</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0599522931471867</v>
+        <v>0.06121689132287641</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>86</v>
@@ -5747,19 +5747,19 @@
         <v>96193</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>76389</v>
+        <v>77194</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>118701</v>
+        <v>118587</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03930469958353365</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03121280755383852</v>
+        <v>0.03154153521495204</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04850137775635031</v>
+        <v>0.04845487183580466</v>
       </c>
     </row>
     <row r="35">
@@ -5776,19 +5776,19 @@
         <v>82695</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>65917</v>
+        <v>65519</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>103220</v>
+        <v>100919</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05838622062796289</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04654024097189426</v>
+        <v>0.04625970911007535</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07287807588214039</v>
+        <v>0.0712533949471261</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>64</v>
@@ -5797,19 +5797,19 @@
         <v>66098</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>51554</v>
+        <v>50929</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>85593</v>
+        <v>83755</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06410839894582929</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05000258010588846</v>
+        <v>0.04939669497931903</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08301750652945726</v>
+        <v>0.0812348266751334</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>139</v>
@@ -5818,19 +5818,19 @@
         <v>148792</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>127272</v>
+        <v>126407</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>175032</v>
+        <v>172511</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06079686583314912</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05200382212152525</v>
+        <v>0.05165026273212281</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07151848534357903</v>
+        <v>0.07048843126219727</v>
       </c>
     </row>
     <row r="36">
@@ -5847,19 +5847,19 @@
         <v>316373</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>283951</v>
+        <v>285417</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>347489</v>
+        <v>348953</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2233738417667883</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2004827171532604</v>
+        <v>0.2015173831198937</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2453432923153634</v>
+        <v>0.2463769330764009</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>238</v>
@@ -5868,19 +5868,19 @@
         <v>244633</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>219869</v>
+        <v>217152</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>276389</v>
+        <v>270995</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2372703089084685</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2132522859935053</v>
+        <v>0.2106172033828566</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2680712366835395</v>
+        <v>0.2628394027932636</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>525</v>
@@ -5889,19 +5889,19 @@
         <v>561005</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>517226</v>
+        <v>518573</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>602100</v>
+        <v>603853</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.229228159829461</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.211340065187552</v>
+        <v>0.2118903240668728</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2460195800238665</v>
+        <v>0.2467358717561661</v>
       </c>
     </row>
     <row r="37">
@@ -5918,19 +5918,19 @@
         <v>392432</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>358255</v>
+        <v>357410</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>427469</v>
+        <v>425502</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2770755041493835</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2529446425043662</v>
+        <v>0.2523484251507141</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3018131479657425</v>
+        <v>0.3004243767548687</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>270</v>
@@ -5939,19 +5939,19 @@
         <v>270842</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>241742</v>
+        <v>243893</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>299693</v>
+        <v>298726</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2626910014108242</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2344669161812715</v>
+        <v>0.2365530479151613</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2906739173758532</v>
+        <v>0.2897357309842684</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>645</v>
@@ -5960,19 +5960,19 @@
         <v>663274</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>620290</v>
+        <v>616491</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>708617</v>
+        <v>707636</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2710155859452571</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2534519853252346</v>
+        <v>0.2518999185630593</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2895427149465586</v>
+        <v>0.289142092782954</v>
       </c>
     </row>
     <row r="38">
@@ -5989,19 +5989,19 @@
         <v>575482</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>539984</v>
+        <v>537442</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>615243</v>
+        <v>614065</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.40631733731356</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3812540564445125</v>
+        <v>0.3794592901467831</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4343905442659603</v>
+        <v>0.4335585657696478</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>391</v>
@@ -6010,19 +6010,19 @@
         <v>402619</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>371144</v>
+        <v>371504</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>433078</v>
+        <v>432971</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3905021262104783</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3599746426174569</v>
+        <v>0.3603238792702019</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4200441437541282</v>
+        <v>0.419940217884089</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>929</v>
@@ -6031,19 +6031,19 @@
         <v>978101</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>928984</v>
+        <v>932464</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1029888</v>
+        <v>1030543</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3996546888085991</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3795852415411578</v>
+        <v>0.3810074228075992</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4208150347027916</v>
+        <v>0.4210827796369553</v>
       </c>
     </row>
     <row r="39">
